--- a/data/trans_camb/P25A_4_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_4_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 12,23</t>
+          <t>1,44; 16,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,1</t>
+          <t>0,0; 12,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,88</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,1</t>
+          <t>0,0; 8,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 8,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>428,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>171,69%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>110,19%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>234,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 1565,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 749,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,32</t>
+          <t>-3,08; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,83</t>
+          <t>-1,91; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,5</t>
+          <t>-3,19; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 0,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 0,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,54%</t>
+          <t>-18,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,81%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,17; 833,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1344,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,49; 194,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 276,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,98</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,92</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,77</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,48</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,5</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,35</t>
+          <t>0,0; 4,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,28</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>241,05%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>218,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>105,18%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1055,11 +1251,26 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 445,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 313,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 432,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 419,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 244,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 217,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 2,17</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 2,11</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 1,45</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,49</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,54</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,75</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 1,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 1,37</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 1,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>258,35%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>245,4%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>97,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>426,43%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>425,21%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>288,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
